--- a/output/fit_clients/fit_round_291.xlsx
+++ b/output/fit_clients/fit_round_291.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2184114200.035326</v>
+        <v>1655575954.362248</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07069498062740794</v>
+        <v>0.08505291186544733</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0427966926334296</v>
+        <v>0.03626688391329427</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1092057120.398119</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2577894513.266089</v>
+        <v>2006519398.168024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1402455674082371</v>
+        <v>0.114446800557317</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03476049208762267</v>
+        <v>0.03496798337480532</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1288947386.190278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3845203080.727095</v>
+        <v>4214546831.962196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1060011584200142</v>
+        <v>0.1425112314482865</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02449088960432605</v>
+        <v>0.03295329243117608</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>105</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1922601543.584416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3593242615.504854</v>
+        <v>3119476224.641252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07258717049811435</v>
+        <v>0.108478914533954</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04630905755327689</v>
+        <v>0.04755721423844778</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1796621338.377578</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2076974265.801425</v>
+        <v>2597215380.060944</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1473004485543138</v>
+        <v>0.127702200798802</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04647381552466364</v>
+        <v>0.05262793743391653</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>54</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1038487154.167122</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2550463484.313086</v>
+        <v>3155506414.855056</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09551216125206546</v>
+        <v>0.07403436491315338</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0330297730224146</v>
+        <v>0.03457477596664642</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>92</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1275231750.331415</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3895324354.383409</v>
+        <v>3867346021.263183</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2199553554674703</v>
+        <v>0.2094818274374269</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02772753756542153</v>
+        <v>0.02754359977059313</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>93</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1947662326.235598</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1415304848.98488</v>
+        <v>1406856340.80644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1932811666501019</v>
+        <v>0.1924975129782754</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0342673102518349</v>
+        <v>0.03742834924929189</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>707652532.2177181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4936329267.133487</v>
+        <v>3675687241.617049</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2095111934706954</v>
+        <v>0.1426685775157203</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04484935861591702</v>
+        <v>0.04766430938539139</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>123</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2468164727.980674</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3698150276.326774</v>
+        <v>3139040831.218094</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1640519650585447</v>
+        <v>0.1300293748013295</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0445035420766066</v>
+        <v>0.03486195734058105</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>120</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1849075129.774492</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2366318228.992693</v>
+        <v>2468776579.202765</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1691166547895583</v>
+        <v>0.1433635443321509</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04242302193866436</v>
+        <v>0.03894118418895727</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>98</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1183159074.491305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4394381071.024173</v>
+        <v>4610346708.908948</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0941682457922839</v>
+        <v>0.07042557347531832</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0189253219847877</v>
+        <v>0.02821133384569424</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>98</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2197190570.410334</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3318663931.682796</v>
+        <v>3821980293.599935</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1516578487127006</v>
+        <v>0.1190256372775887</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03014843950472887</v>
+        <v>0.03543590966250169</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>93</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1659331977.200055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1420809223.033922</v>
+        <v>1364406605.501328</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08904811179769832</v>
+        <v>0.1047658229652021</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03468138879839861</v>
+        <v>0.03901503536643353</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>710404679.0641099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2794998291.817213</v>
+        <v>1844230018.990005</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09133087585029614</v>
+        <v>0.09744361767898134</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04682310962210561</v>
+        <v>0.05180007965688441</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>56</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1397499150.383263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3611524765.867933</v>
+        <v>3509014747.808303</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1317988656908045</v>
+        <v>0.1407354798754259</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05327102191198497</v>
+        <v>0.04783563220586743</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>85</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1805762436.688243</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2449625075.111166</v>
+        <v>3302630414.064266</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1603181341443736</v>
+        <v>0.161546733017659</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02120212061436351</v>
+        <v>0.0317385958837162</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>95</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1224812607.666234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>915380177.0886761</v>
+        <v>1023712851.737055</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1699957710926649</v>
+        <v>0.1396858988695714</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02433094621794983</v>
+        <v>0.0175412520080851</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>457690097.193729</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2077895905.41778</v>
+        <v>1927301597.651952</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1311490714098459</v>
+        <v>0.1592134965936848</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03128546372055279</v>
+        <v>0.02111323079908193</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1038947970.743688</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2589622227.525867</v>
+        <v>1836688675.317199</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06934986003613558</v>
+        <v>0.07964749261274626</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04474910700165936</v>
+        <v>0.04054791948127989</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1294811093.28973</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3667095444.187406</v>
+        <v>2796346920.577095</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09164863202323838</v>
+        <v>0.1034796276410157</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05284493803457692</v>
+        <v>0.0459933531777343</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>81</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1833547743.67518</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1056252983.336841</v>
+        <v>1258207648.488249</v>
       </c>
       <c r="F23" t="n">
-        <v>0.115672905048582</v>
+        <v>0.1200361941399273</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03634776549148155</v>
+        <v>0.0388174140779417</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>528126552.3891314</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2501612244.772468</v>
+        <v>3690705125.572418</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1395729131207976</v>
+        <v>0.1074915461328545</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02262631125106305</v>
+        <v>0.02844937304280399</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>85</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1250806191.147786</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1301872601.398984</v>
+        <v>1317768191.500205</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1144402511891874</v>
+        <v>0.1194831907577805</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02480537852483988</v>
+        <v>0.02942402392829254</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>650936295.2215949</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1377094626.050675</v>
+        <v>963238352.5341533</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09679743705748707</v>
+        <v>0.1179264046850299</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03769487967391298</v>
+        <v>0.02510234887122778</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>688547377.3724836</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4075462021.664034</v>
+        <v>3599152597.915894</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1345643319713349</v>
+        <v>0.1090792031805112</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01983099324146155</v>
+        <v>0.02411584541201819</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2037731017.213737</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3886447432.628818</v>
+        <v>3761558708.48382</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1133390842876485</v>
+        <v>0.1453146841244723</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03175624294934282</v>
+        <v>0.03457972543767281</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1943223804.51164</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4992347573.698838</v>
+        <v>4807592771.366638</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1299826797741298</v>
+        <v>0.1515379562010573</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03381516924137662</v>
+        <v>0.04443071618549494</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>129</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2496173734.984067</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1830782502.256419</v>
+        <v>2364270434.354337</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08526096235190296</v>
+        <v>0.09459158854815307</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03429536006172268</v>
+        <v>0.03836557248474164</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>915391269.3490443</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>949452599.3493158</v>
+        <v>1276297420.17117</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09769276776877471</v>
+        <v>0.1008480707734433</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04916651972305983</v>
+        <v>0.04071504727440264</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>474726310.1202892</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1365897860.367222</v>
+        <v>1186112297.801881</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0827883670945055</v>
+        <v>0.08332613764058887</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02798123870800438</v>
+        <v>0.03678505020212642</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>682948970.7738639</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1932519684.238105</v>
+        <v>2376617510.57444</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1645643492143158</v>
+        <v>0.1373972653783379</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04096112096782249</v>
+        <v>0.05162724375651775</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>966259928.6441759</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1318180779.949974</v>
+        <v>1226555407.211898</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1168509944153198</v>
+        <v>0.1087765230235011</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02674304651350878</v>
+        <v>0.01893868728317653</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>659090375.693442</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1308631374.585229</v>
+        <v>1318060702.749149</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09428524369491442</v>
+        <v>0.1019445368272551</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04260025035778763</v>
+        <v>0.03969484339567409</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>654315638.2143303</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2134907239.897082</v>
+        <v>2821852923.848641</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1450873461706978</v>
+        <v>0.1675326457113595</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01754962461612817</v>
+        <v>0.02095064739358178</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1067453671.155007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1913831680.809594</v>
+        <v>2854432975.571827</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07354070000287805</v>
+        <v>0.09060112484481851</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03207979923842944</v>
+        <v>0.03529836070021736</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>77</v>
-      </c>
-      <c r="J37" t="n">
-        <v>956915855.8399932</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1556387754.500714</v>
+        <v>1863070602.652977</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08164309811939498</v>
+        <v>0.0893177653311502</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03746633458343854</v>
+        <v>0.03859083237131857</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>778193918.5383346</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1471354701.931433</v>
+        <v>2207099489.142816</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1457633911628326</v>
+        <v>0.1419518956176857</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02188707216654549</v>
+        <v>0.02050907378341613</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>735677425.7791275</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1709904061.973244</v>
+        <v>1176220097.95667</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1135185621218712</v>
+        <v>0.1552147526977646</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05531852694811362</v>
+        <v>0.04857156550133131</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>854951944.6246774</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2826807216.836357</v>
+        <v>2505046057.163774</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1318879348389511</v>
+        <v>0.1488546234498374</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03788591817736901</v>
+        <v>0.04711311632623678</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>72</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1413403601.683059</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4264879493.897527</v>
+        <v>2946730263.352252</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1246892149554575</v>
+        <v>0.1130673721167783</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03899366974182819</v>
+        <v>0.04348701927140952</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>98</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2132439794.475139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2739987332.374793</v>
+        <v>2179320155.645249</v>
       </c>
       <c r="F43" t="n">
-        <v>0.180985365584881</v>
+        <v>0.1385101248928406</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02367627161336592</v>
+        <v>0.02117368422673222</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>106</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1369993690.703787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2135822196.054205</v>
+        <v>2274634033.72907</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06266524231379968</v>
+        <v>0.1011112451291341</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02640983855062511</v>
+        <v>0.02917043741208503</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1067911231.457435</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2184001964.282979</v>
+        <v>2189252306.865612</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1330213406679027</v>
+        <v>0.1801746801305819</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03629116374260159</v>
+        <v>0.03699922151762517</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1092000991.531654</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5670265225.481037</v>
+        <v>3842879388.701102</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1410506009621919</v>
+        <v>0.109734528514811</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05325402621477115</v>
+        <v>0.05839978294876044</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>104</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2835132677.911212</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3640177529.670466</v>
+        <v>4687227323.896148</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2028867058470218</v>
+        <v>0.1948750298358466</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03967543893344399</v>
+        <v>0.05158280512866398</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>78</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1820088743.622087</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4719182846.810075</v>
+        <v>3183614229.986895</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1006566583920235</v>
+        <v>0.09987637837328428</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0287004415109492</v>
+        <v>0.02386587943777527</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2359591415.995469</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1213567579.483734</v>
+        <v>1924819850.293194</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1414784694223297</v>
+        <v>0.1947458237346123</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03366524565495579</v>
+        <v>0.04405520859467281</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>606783866.299649</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2893830201.406758</v>
+        <v>3506385277.244366</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1514082299663391</v>
+        <v>0.1429581044663912</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05087271977179824</v>
+        <v>0.03863416524924766</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>99</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1446915168.080291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1399690512.114203</v>
+        <v>1094423040.109895</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1313422375120859</v>
+        <v>0.1473216196390345</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04661795205026335</v>
+        <v>0.04414112935923743</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>699845275.2469014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4526003953.115094</v>
+        <v>5047593380.807043</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08980869335207907</v>
+        <v>0.09024752758491431</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06138439408964531</v>
+        <v>0.0591126471506903</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>120</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2263002002.078112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2361426684.847056</v>
+        <v>3565443774.529751</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1284365846976204</v>
+        <v>0.1288219720485188</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02142541977143648</v>
+        <v>0.02667038658083386</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>83</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1180713418.978028</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3444071727.041515</v>
+        <v>4907848975.630477</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1650919731227517</v>
+        <v>0.1675553072584368</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03995023722260822</v>
+        <v>0.04455206644670377</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>94</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1722035883.914066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3846159795.713532</v>
+        <v>4752615654.044675</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1905541450934714</v>
+        <v>0.2216910385215642</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02782387924849532</v>
+        <v>0.02408413912439344</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>78</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1923079865.9645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1884519299.902192</v>
+        <v>1785258253.960101</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1245778765318088</v>
+        <v>0.1302323630605682</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04316310827188603</v>
+        <v>0.05568731976552589</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>942259635.2284796</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4346990822.450741</v>
+        <v>4157488461.1408</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1118915091325213</v>
+        <v>0.1294870592089533</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02624262331662497</v>
+        <v>0.02610570117014271</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>92</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2173495528.729376</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1149048500.07556</v>
+        <v>1888850202.323701</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1301615656701816</v>
+        <v>0.1565136858286051</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02581387332741911</v>
+        <v>0.02823993631902014</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>574524313.1874654</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5086473686.171124</v>
+        <v>5166606880.878976</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1157406559631405</v>
+        <v>0.1285751896918355</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04496865313927789</v>
+        <v>0.04671637073300933</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>80</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2543236766.622782</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3729731821.242739</v>
+        <v>2288922363.593652</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1286286480437291</v>
+        <v>0.1480108666565007</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02151885684242223</v>
+        <v>0.02813114305526886</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>90</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1864866057.515648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2385332659.86962</v>
+        <v>2189727506.753733</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1427025659256267</v>
+        <v>0.1737628695463554</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02175712089149716</v>
+        <v>0.02869787716904085</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>100</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1192666368.372087</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1353211098.291439</v>
+        <v>1444050373.890838</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1685564687492024</v>
+        <v>0.1936300813767084</v>
       </c>
       <c r="G62" t="n">
-        <v>0.039920758095978</v>
+        <v>0.04001694892365048</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>676605510.1522386</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5444956948.686835</v>
+        <v>5150544851.508735</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1032558603879147</v>
+        <v>0.07077411112270718</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0339739359562449</v>
+        <v>0.02941372596275894</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>83</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2722478472.267391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5059544360.291165</v>
+        <v>4939155098.81664</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1434444857955524</v>
+        <v>0.1369281878151478</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02623351365315427</v>
+        <v>0.02177157888249817</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>90</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2529772290.536159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4465291095.65369</v>
+        <v>3732109439.057747</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1394430079107953</v>
+        <v>0.1242199392968181</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02052966360715834</v>
+        <v>0.02161928497091534</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>104</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2232645538.648451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4979910490.618</v>
+        <v>5114519825.259894</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1605938500577956</v>
+        <v>0.1009700112589194</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04526753089968073</v>
+        <v>0.04005267821623464</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>85</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2489955271.364627</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2872506496.982521</v>
+        <v>2470758689.693483</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09686879120265471</v>
+        <v>0.102475718005139</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05084253477170426</v>
+        <v>0.04223649618613384</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>93</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1436253277.571779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5294384298.077225</v>
+        <v>5562144464.053259</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1436422475395263</v>
+        <v>0.1316277951864201</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04414474261157604</v>
+        <v>0.05035259816223648</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2647192223.261605</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2194110794.1933</v>
+        <v>1641182869.996786</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1111597686356246</v>
+        <v>0.1556909021810274</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05141723565558792</v>
+        <v>0.04486460349236364</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1097055427.138597</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2406255360.210306</v>
+        <v>2703054724.71235</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09638577383641425</v>
+        <v>0.09856808622590194</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04398855514995345</v>
+        <v>0.04002908717706795</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>83</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1203127618.525594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3805372531.871973</v>
+        <v>3934313534.9684</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1705148412574974</v>
+        <v>0.1302345755431697</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02056644652168146</v>
+        <v>0.02474123681478303</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>106</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1902686282.43114</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1672002865.877932</v>
+        <v>1926407304.336247</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07466022829490601</v>
+        <v>0.08380339733858073</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0476132894703764</v>
+        <v>0.03764166578462341</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>836001432.1815536</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3119391817.62823</v>
+        <v>2690982158.815024</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0994648632772956</v>
+        <v>0.09562683824348935</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03560533832275914</v>
+        <v>0.05160252433729689</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>111</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1559695893.846113</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3655115519.444558</v>
+        <v>3426970883.160395</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1153589946975836</v>
+        <v>0.179545993531544</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03099178571385724</v>
+        <v>0.03240613828292103</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>99</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1827557768.480824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1800258707.026986</v>
+        <v>2295387097.808062</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1444966095378185</v>
+        <v>0.1673693444588926</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0306207648772975</v>
+        <v>0.02639141432705372</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>900129336.4242706</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5362945552.243319</v>
+        <v>3496131286.020026</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09338302483038906</v>
+        <v>0.1238585746235074</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03360850681998883</v>
+        <v>0.03037179636486489</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>64</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2681472818.011403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1981572576.366478</v>
+        <v>1835380661.592067</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1633269261946543</v>
+        <v>0.1556333453061368</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02101643814505891</v>
+        <v>0.02542686069922059</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>990786347.0185505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4009681546.842806</v>
+        <v>4261752510.059831</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1046487679483686</v>
+        <v>0.1349263704104251</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05445946624765305</v>
+        <v>0.03664586935382942</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>101</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2004840738.46655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1788833999.105292</v>
+        <v>1183133788.278392</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1166111269912945</v>
+        <v>0.1357446296656724</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03769478716485862</v>
+        <v>0.03770226829748243</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>894417084.2965088</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4196396239.137595</v>
+        <v>4332694528.90468</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09305727841630261</v>
+        <v>0.1096766698507272</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02526195472387774</v>
+        <v>0.02501816280992794</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>61</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2098198128.795959</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3589889121.264206</v>
+        <v>3310766546.985884</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0843018717274812</v>
+        <v>0.1361511996584266</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02583734531427883</v>
+        <v>0.02906720004958348</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1794944508.597729</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5633114197.458619</v>
+        <v>3801249340.987469</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1358431685945611</v>
+        <v>0.1652929934367087</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02040259364439017</v>
+        <v>0.02912045521236561</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>102</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2816557047.360685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1821137150.518141</v>
+        <v>2394772334.697011</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1274099273483517</v>
+        <v>0.1389889984044229</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04219677738149245</v>
+        <v>0.03557202987283266</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>910568538.2727098</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1879795506.919373</v>
+        <v>2244307173.203763</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09570657126071934</v>
+        <v>0.1065210320629353</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03292926519569184</v>
+        <v>0.04919311205286298</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>939897776.0471917</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2449782529.632228</v>
+        <v>2316601054.831689</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1320077134958041</v>
+        <v>0.1198823579633995</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05610014714889212</v>
+        <v>0.05608718000531704</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>110</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1224891264.22352</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2511768285.207427</v>
+        <v>1954968592.910293</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1729887224251108</v>
+        <v>0.1041210734179055</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02048503948688255</v>
+        <v>0.02296343248916997</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>39</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1255884241.405828</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1090903632.570851</v>
+        <v>1365141566.294577</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1294487628455847</v>
+        <v>0.1762857076768163</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02728484394264356</v>
+        <v>0.04032321360012152</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>545451843.9229132</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2829085637.861601</v>
+        <v>3270933002.512528</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1205482130582379</v>
+        <v>0.1597321442007247</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02447329594219709</v>
+        <v>0.03731088168440574</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>115</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1414542832.48109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2998940685.790393</v>
+        <v>3351517390.867815</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1017264627814008</v>
+        <v>0.1250240968020931</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04119659978227222</v>
+        <v>0.04014987070039843</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>99</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1499470381.083683</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1594044251.402622</v>
+        <v>2099853036.915752</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1015155895653267</v>
+        <v>0.1265859555528412</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03432662032154892</v>
+        <v>0.04553450690613182</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>797022121.6154791</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1995724314.230462</v>
+        <v>1749960657.174229</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1605698644753634</v>
+        <v>0.1735132161655669</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05619424120621112</v>
+        <v>0.0482966330265194</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>997862129.9698733</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2157878114.055103</v>
+        <v>2773411424.951516</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07071888300277367</v>
+        <v>0.06896216118094985</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03091720782235513</v>
+        <v>0.02974644767419357</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>74</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1078939015.124701</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4635864049.104675</v>
+        <v>3928367861.60498</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1183957524560906</v>
+        <v>0.1417685385110971</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03534378224731244</v>
+        <v>0.03608331264674595</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2317931984.034128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1531189162.200759</v>
+        <v>2241931179.29368</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1261085015903248</v>
+        <v>0.1499245613051736</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0352384069820832</v>
+        <v>0.03608272143103751</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>765594518.3985803</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2563401866.027105</v>
+        <v>2401209886.916667</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1307158366908823</v>
+        <v>0.1347038794574476</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0382474588076492</v>
+        <v>0.05234603520240991</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>70</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1281700964.523566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1690055884.535385</v>
+        <v>1547451847.968766</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1255879328602911</v>
+        <v>0.1300318468745335</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04160090764485671</v>
+        <v>0.02907247979436193</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>845027962.3266035</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3667105229.069388</v>
+        <v>4128547160.025815</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1398723653123015</v>
+        <v>0.1312708063453936</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0179364430104264</v>
+        <v>0.0194068538450186</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>94</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1833552644.154064</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3899399328.179211</v>
+        <v>3245297448.994743</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09017945857802359</v>
+        <v>0.1172091986499959</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02962464738175354</v>
+        <v>0.02397751175467903</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>77</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1949699709.786996</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2080047361.825815</v>
+        <v>3368880162.609385</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1067121405108153</v>
+        <v>0.1467223887983727</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03139826387493982</v>
+        <v>0.02561879731489606</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>91</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1040023600.261986</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3214219454.323737</v>
+        <v>4306856842.00309</v>
       </c>
       <c r="F100" t="n">
-        <v>0.168225085590793</v>
+        <v>0.1187536025506244</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01881734826415818</v>
+        <v>0.02467881600014035</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1607109735.112102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3374676473.491062</v>
+        <v>3605990116.130466</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2178036162071574</v>
+        <v>0.2082442002461034</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04988242059402406</v>
+        <v>0.0470750945045877</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>115</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1687338375.356231</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_291.xlsx
+++ b/output/fit_clients/fit_round_291.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1655575954.362248</v>
+        <v>1643066538.983773</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08505291186544733</v>
+        <v>0.08491852715333559</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03626688391329427</v>
+        <v>0.04444887940531429</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2006519398.168024</v>
+        <v>1871035534.819818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.114446800557317</v>
+        <v>0.1586075906845506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03496798337480532</v>
+        <v>0.03383064383453072</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4214546831.962196</v>
+        <v>4443513168.498091</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1425112314482865</v>
+        <v>0.1599758374346212</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03295329243117608</v>
+        <v>0.02431196401947766</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3119476224.641252</v>
+        <v>4236770725.920126</v>
       </c>
       <c r="F5" t="n">
-        <v>0.108478914533954</v>
+        <v>0.1052094472331259</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04755721423844778</v>
+        <v>0.03607463878313852</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2597215380.060944</v>
+        <v>2186540562.303569</v>
       </c>
       <c r="F6" t="n">
-        <v>0.127702200798802</v>
+        <v>0.09088764618779861</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05262793743391653</v>
+        <v>0.05108710763078328</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3155506414.855056</v>
+        <v>2384008650.987478</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07403436491315338</v>
+        <v>0.09281354700885688</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03457477596664642</v>
+        <v>0.03839856211174946</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3867346021.263183</v>
+        <v>3253912475.237787</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2094818274374269</v>
+        <v>0.2016326862199892</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02754359977059313</v>
+        <v>0.0301180888290784</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1406856340.80644</v>
+        <v>1917001874.377668</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1924975129782754</v>
+        <v>0.152422617777204</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03742834924929189</v>
+        <v>0.03023396012897588</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3675687241.617049</v>
+        <v>4271002955.743158</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1426685775157203</v>
+        <v>0.2006123844786726</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04766430938539139</v>
+        <v>0.03570441105152194</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3139040831.218094</v>
+        <v>3247636427.820621</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1300293748013295</v>
+        <v>0.1347386818838434</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03486195734058105</v>
+        <v>0.04377013013775662</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2468776579.202765</v>
+        <v>2439311278.028713</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1433635443321509</v>
+        <v>0.1947627617133718</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03894118418895727</v>
+        <v>0.04289480505101666</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4610346708.908948</v>
+        <v>4611937556.307643</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07042557347531832</v>
+        <v>0.0793566438528273</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02821133384569424</v>
+        <v>0.02969811060008358</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3821980293.599935</v>
+        <v>3883966312.19869</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1190256372775887</v>
+        <v>0.1337618316578671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03543590966250169</v>
+        <v>0.03116217478833937</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1364406605.501328</v>
+        <v>1297118324.315616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1047658229652021</v>
+        <v>0.08731454170113895</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03901503536643353</v>
+        <v>0.04655997390008536</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1844230018.990005</v>
+        <v>2568344849.877237</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09744361767898134</v>
+        <v>0.07988937606850895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05180007965688441</v>
+        <v>0.03953432107506073</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3509014747.808303</v>
+        <v>4456061807.9204</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1407354798754259</v>
+        <v>0.1340812096012653</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04783563220586743</v>
+        <v>0.0342775877398574</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3302630414.064266</v>
+        <v>3957750728.033637</v>
       </c>
       <c r="F18" t="n">
-        <v>0.161546733017659</v>
+        <v>0.1441502689699005</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0317385958837162</v>
+        <v>0.02769497118942353</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1023712851.737055</v>
+        <v>1218803434.527102</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1396858988695714</v>
+        <v>0.1169929316602721</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0175412520080851</v>
+        <v>0.01917141233392453</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1927301597.651952</v>
+        <v>2564176607.815757</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1592134965936848</v>
+        <v>0.1567266736951531</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02111323079908193</v>
+        <v>0.02776615650122758</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1836688675.317199</v>
+        <v>2078794078.641399</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07964749261274626</v>
+        <v>0.08852910209129715</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04054791948127989</v>
+        <v>0.03963978483744303</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2796346920.577095</v>
+        <v>2965240837.24847</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1034796276410157</v>
+        <v>0.1391711170587089</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0459933531777343</v>
+        <v>0.05297042582081211</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1258207648.488249</v>
+        <v>1555629443.721957</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1200361941399273</v>
+        <v>0.1657366828865173</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0388174140779417</v>
+        <v>0.04661643985412758</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3690705125.572418</v>
+        <v>2496396643.533535</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1074915461328545</v>
+        <v>0.1111999382034043</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02844937304280399</v>
+        <v>0.03303632358948053</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1317768191.500205</v>
+        <v>1417599496.598304</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1194831907577805</v>
+        <v>0.1120983712887421</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02942402392829254</v>
+        <v>0.02547440663135369</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>963238352.5341533</v>
+        <v>1432427222.423612</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1179264046850299</v>
+        <v>0.121551526561973</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02510234887122778</v>
+        <v>0.02390915723454408</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3599152597.915894</v>
+        <v>2885669315.062634</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1090792031805112</v>
+        <v>0.09685766484937232</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02411584541201819</v>
+        <v>0.01780313078692171</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3761558708.48382</v>
+        <v>3209308221.448581</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1453146841244723</v>
+        <v>0.135618815182366</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03457972543767281</v>
+        <v>0.04111841812031768</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4807592771.366638</v>
+        <v>3821591380.837131</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1515379562010573</v>
+        <v>0.1246905968777823</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04443071618549494</v>
+        <v>0.04117345638603223</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2364270434.354337</v>
+        <v>2313621319.961335</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09459158854815307</v>
+        <v>0.101689820123697</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03836557248474164</v>
+        <v>0.02565322740419537</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1276297420.17117</v>
+        <v>1411973130.03731</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1008480707734433</v>
+        <v>0.1005686078434033</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04071504727440264</v>
+        <v>0.05076158487151954</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1186112297.801881</v>
+        <v>1157746030.161811</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08332613764058887</v>
+        <v>0.07398095180746604</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03678505020212642</v>
+        <v>0.02398864030675375</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2376617510.57444</v>
+        <v>2910402891.426988</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1373972653783379</v>
+        <v>0.2063123652681459</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05162724375651775</v>
+        <v>0.03744217660470367</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1226555407.211898</v>
+        <v>1411099766.421022</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1087765230235011</v>
+        <v>0.1157240808696368</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01893868728317653</v>
+        <v>0.02319155324847389</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1318060702.749149</v>
+        <v>899844809.9961215</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1019445368272551</v>
+        <v>0.07899015842796733</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03969484339567409</v>
+        <v>0.03944542067852382</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2821852923.848641</v>
+        <v>2413515848.062316</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1675326457113595</v>
+        <v>0.1160503332528494</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02095064739358178</v>
+        <v>0.02232738019477972</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2854432975.571827</v>
+        <v>2609463920.152917</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09060112484481851</v>
+        <v>0.0740021424796366</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03529836070021736</v>
+        <v>0.03152911730704434</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1863070602.652977</v>
+        <v>1960647328.967998</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0893177653311502</v>
+        <v>0.09464079335825534</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03859083237131857</v>
+        <v>0.0388187790909116</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2207099489.142816</v>
+        <v>1970463288.407745</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1419518956176857</v>
+        <v>0.1221234466477816</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02050907378341613</v>
+        <v>0.03220841158914174</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1176220097.95667</v>
+        <v>1180987401.688475</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1552147526977646</v>
+        <v>0.1545774964903003</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04857156550133131</v>
+        <v>0.05579224022924851</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2505046057.163774</v>
+        <v>1926745762.95509</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1488546234498374</v>
+        <v>0.1537171371830303</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04711311632623678</v>
+        <v>0.04028876052182146</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2946730263.352252</v>
+        <v>2846174245.970159</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1130673721167783</v>
+        <v>0.07958159673198931</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04348701927140952</v>
+        <v>0.03636722980584688</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2179320155.645249</v>
+        <v>1944506373.551737</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1385101248928406</v>
+        <v>0.1470406606819786</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02117368422673222</v>
+        <v>0.02328987951197424</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2274634033.72907</v>
+        <v>1671410669.771789</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1011112451291341</v>
+        <v>0.1031758820524453</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02917043741208503</v>
+        <v>0.03125695214087146</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2189252306.865612</v>
+        <v>1679297290.913925</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1801746801305819</v>
+        <v>0.1355905301398148</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03699922151762517</v>
+        <v>0.04592095346263483</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3842879388.701102</v>
+        <v>5330418126.833611</v>
       </c>
       <c r="F46" t="n">
-        <v>0.109734528514811</v>
+        <v>0.1740600032185762</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05839978294876044</v>
+        <v>0.04103490887590633</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4687227323.896148</v>
+        <v>3155226659.867187</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1948750298358466</v>
+        <v>0.1775674564161018</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05158280512866398</v>
+        <v>0.05787022560858643</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3183614229.986895</v>
+        <v>4630974089.0774</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09987637837328428</v>
+        <v>0.08967963062787374</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02386587943777527</v>
+        <v>0.02467516920960613</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1924819850.293194</v>
+        <v>1365551603.91536</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1947458237346123</v>
+        <v>0.1797672432547605</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04405520859467281</v>
+        <v>0.03159459349137032</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3506385277.244366</v>
+        <v>3971841857.934308</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1429581044663912</v>
+        <v>0.1459731346111984</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03863416524924766</v>
+        <v>0.03933484658060792</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1094423040.109895</v>
+        <v>1060366376.810543</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1473216196390345</v>
+        <v>0.1390650211750191</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04414112935923743</v>
+        <v>0.04827535897845113</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5047593380.807043</v>
+        <v>4260540108.117301</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09024752758491431</v>
+        <v>0.1233942723439709</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0591126471506903</v>
+        <v>0.0575067569890415</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3565443774.529751</v>
+        <v>2412512033.158422</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1288219720485188</v>
+        <v>0.158013702399488</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02667038658083386</v>
+        <v>0.03071448222437915</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4907848975.630477</v>
+        <v>3916697166.419811</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1675553072584368</v>
+        <v>0.1154036969727411</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04455206644670377</v>
+        <v>0.0384543072443467</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4752615654.044675</v>
+        <v>4670746215.710736</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2216910385215642</v>
+        <v>0.1755357735466826</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02408413912439344</v>
+        <v>0.01995993484256921</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1785258253.960101</v>
+        <v>1310274306.135887</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1302323630605682</v>
+        <v>0.1031402035983</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05568731976552589</v>
+        <v>0.05707120727624366</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4157488461.1408</v>
+        <v>4273257703.645352</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1294870592089533</v>
+        <v>0.1511946232289352</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02610570117014271</v>
+        <v>0.02261990944896459</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1888850202.323701</v>
+        <v>1234823450.630226</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1565136858286051</v>
+        <v>0.1875798376298908</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02823993631902014</v>
+        <v>0.02779686285691558</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5166606880.878976</v>
+        <v>3812409303.81207</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1285751896918355</v>
+        <v>0.09182873769921264</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04671637073300933</v>
+        <v>0.03669792909975374</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2288922363.593652</v>
+        <v>2357734944.446589</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1480108666565007</v>
+        <v>0.1815904078613684</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02813114305526886</v>
+        <v>0.0233980306520752</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2189727506.753733</v>
+        <v>2051014121.701841</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1737628695463554</v>
+        <v>0.1717078458233317</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02869787716904085</v>
+        <v>0.0290056511511121</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1444050373.890838</v>
+        <v>1870964912.156829</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1936300813767084</v>
+        <v>0.1687707735722207</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04001694892365048</v>
+        <v>0.03912023569874268</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5150544851.508735</v>
+        <v>4627568723.11041</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07077411112270718</v>
+        <v>0.08514479085910551</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02941372596275894</v>
+        <v>0.03417866933081114</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4939155098.81664</v>
+        <v>3448168499.641872</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1369281878151478</v>
+        <v>0.1497696138076643</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02177157888249817</v>
+        <v>0.03076897261613997</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3732109439.057747</v>
+        <v>4038239680.922834</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1242199392968181</v>
+        <v>0.1078199075644136</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02161928497091534</v>
+        <v>0.0293659824985433</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5114519825.259894</v>
+        <v>4070783374.311287</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1009700112589194</v>
+        <v>0.1108246930346912</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04005267821623464</v>
+        <v>0.03689588083847243</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2470758689.693483</v>
+        <v>3042003119.602231</v>
       </c>
       <c r="F67" t="n">
-        <v>0.102475718005139</v>
+        <v>0.06774948858408895</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04223649618613384</v>
+        <v>0.05083216247178279</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5562144464.053259</v>
+        <v>4153214658.835566</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1316277951864201</v>
+        <v>0.1389279458388166</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05035259816223648</v>
+        <v>0.04513350793168992</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1641182869.996786</v>
+        <v>1841881117.824065</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1556909021810274</v>
+        <v>0.160038859967458</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04486460349236364</v>
+        <v>0.04344500910119187</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2703054724.71235</v>
+        <v>3399328017.923747</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09856808622590194</v>
+        <v>0.09420286559838006</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04002908717706795</v>
+        <v>0.04736870606352647</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3934313534.9684</v>
+        <v>5157252810.745013</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1302345755431697</v>
+        <v>0.1548352560514015</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02474123681478303</v>
+        <v>0.02666853298975199</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1926407304.336247</v>
+        <v>2122020283.082208</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08380339733858073</v>
+        <v>0.07629958698346741</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03764166578462341</v>
+        <v>0.04684848580533223</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2690982158.815024</v>
+        <v>3349097374.870037</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09562683824348935</v>
+        <v>0.07168683946729332</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05160252433729689</v>
+        <v>0.03582137775315423</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3426970883.160395</v>
+        <v>2513575940.125477</v>
       </c>
       <c r="F74" t="n">
-        <v>0.179545993531544</v>
+        <v>0.1543747810747328</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03240613828292103</v>
+        <v>0.03495665823150274</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2295387097.808062</v>
+        <v>2165968494.935699</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1673693444588926</v>
+        <v>0.1594619491650694</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02639141432705372</v>
+        <v>0.0357290023206086</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3496131286.020026</v>
+        <v>4236312400.904927</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1238585746235074</v>
+        <v>0.1158857587222105</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03037179636486489</v>
+        <v>0.03254398135995539</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1835380661.592067</v>
+        <v>1698069652.85237</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1556333453061368</v>
+        <v>0.1840139684194099</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02542686069922059</v>
+        <v>0.02012337141492826</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4261752510.059831</v>
+        <v>4613151714.412576</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1349263704104251</v>
+        <v>0.09134519153816956</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03664586935382942</v>
+        <v>0.04162481772168227</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1183133788.278392</v>
+        <v>1227579114.277133</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1357446296656724</v>
+        <v>0.1098222095988295</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03770226829748243</v>
+        <v>0.03980850496590851</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4332694528.90468</v>
+        <v>4859318266.804333</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1096766698507272</v>
+        <v>0.1042612306152664</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02501816280992794</v>
+        <v>0.02559065593238409</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3310766546.985884</v>
+        <v>3458321453.729982</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1361511996584266</v>
+        <v>0.09750145223235633</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02906720004958348</v>
+        <v>0.02228471094341888</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3801249340.987469</v>
+        <v>5262351116.499148</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1652929934367087</v>
+        <v>0.1687753065046965</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02912045521236561</v>
+        <v>0.02748282314424504</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2394772334.697011</v>
+        <v>2158063658.006913</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1389889984044229</v>
+        <v>0.113233394354108</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03557202987283266</v>
+        <v>0.03105925444368645</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2244307173.203763</v>
+        <v>2530104394.659206</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1065210320629353</v>
+        <v>0.08073460383897361</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04919311205286298</v>
+        <v>0.03267081677136193</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2316601054.831689</v>
+        <v>3352312286.408431</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1198823579633995</v>
+        <v>0.1628357202556856</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05608718000531704</v>
+        <v>0.04373665653120479</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1954968592.910293</v>
+        <v>1714254971.767627</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1041210734179055</v>
+        <v>0.1589894825181935</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02296343248916997</v>
+        <v>0.02546952315804518</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1365141566.294577</v>
+        <v>1070436502.228178</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1762857076768163</v>
+        <v>0.1509559710011046</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04032321360012152</v>
+        <v>0.02780749793568853</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3270933002.512528</v>
+        <v>2417522185.294708</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1597321442007247</v>
+        <v>0.153427325631552</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03731088168440574</v>
+        <v>0.03105107729397212</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3351517390.867815</v>
+        <v>3271751920.828865</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1250240968020931</v>
+        <v>0.1170347061180687</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04014987070039843</v>
+        <v>0.02764661290538029</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2099853036.915752</v>
+        <v>1916402064.736363</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1265859555528412</v>
+        <v>0.1066728864059104</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04553450690613182</v>
+        <v>0.05081571972572679</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1749960657.174229</v>
+        <v>1586650599.841726</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1735132161655669</v>
+        <v>0.1808448192857398</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0482966330265194</v>
+        <v>0.04569916938284901</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2773411424.951516</v>
+        <v>1806065162.200373</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06896216118094985</v>
+        <v>0.08344873175812705</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02974644767419357</v>
+        <v>0.03487280133545483</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3928367861.60498</v>
+        <v>4790591778.968405</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1417685385110971</v>
+        <v>0.09683081857806461</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03608331264674595</v>
+        <v>0.04846505855732298</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2241931179.29368</v>
+        <v>2079913493.635588</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1499245613051736</v>
+        <v>0.1520935351943224</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03608272143103751</v>
+        <v>0.04257335850454534</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2401209886.916667</v>
+        <v>2636890350.033449</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1347038794574476</v>
+        <v>0.08862592999630398</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05234603520240991</v>
+        <v>0.04902414804323858</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1547451847.968766</v>
+        <v>1913084644.928554</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1300318468745335</v>
+        <v>0.08969369004014022</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02907247979436193</v>
+        <v>0.02887370477581215</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4128547160.025815</v>
+        <v>5354111600.857866</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1312708063453936</v>
+        <v>0.1085506643974984</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0194068538450186</v>
+        <v>0.02606838359712411</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3245297448.994743</v>
+        <v>2892856135.437706</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1172091986499959</v>
+        <v>0.1092128849205865</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02397751175467903</v>
+        <v>0.0325830438200946</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3368880162.609385</v>
+        <v>2385575994.182784</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1467223887983727</v>
+        <v>0.1173413925649013</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02561879731489606</v>
+        <v>0.02606887440396717</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4306856842.00309</v>
+        <v>4761611524.655294</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1187536025506244</v>
+        <v>0.132808401829592</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02467881600014035</v>
+        <v>0.02459047226704214</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3605990116.130466</v>
+        <v>3130447191.570935</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2082442002461034</v>
+        <v>0.2103800216268155</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0470750945045877</v>
+        <v>0.04529820464354833</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_291.xlsx
+++ b/output/fit_clients/fit_round_291.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1643066538.983773</v>
+        <v>2515410324.486771</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08491852715333559</v>
+        <v>0.08725687225403542</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04444887940531429</v>
+        <v>0.03813642351010299</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1871035534.819818</v>
+        <v>2440028057.175518</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1586075906845506</v>
+        <v>0.1214907008036617</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03383064383453072</v>
+        <v>0.04196203069834042</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4443513168.498091</v>
+        <v>3772196002.148213</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1599758374346212</v>
+        <v>0.140259148868433</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02431196401947766</v>
+        <v>0.02732670437893934</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>154</v>
+      </c>
+      <c r="J4" t="n">
+        <v>290</v>
+      </c>
+      <c r="K4" t="n">
+        <v>73.949045993319</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4236770725.920126</v>
+        <v>2641105584.242161</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1052094472331259</v>
+        <v>0.07534848630882704</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03607463878313852</v>
+        <v>0.04790220416685963</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>119</v>
+      </c>
+      <c r="J5" t="n">
+        <v>289</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2186540562.303569</v>
+        <v>2040845382.310621</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09088764618779861</v>
+        <v>0.1113332564250693</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05108710763078328</v>
+        <v>0.05561262023382735</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2384008650.987478</v>
+        <v>2424770902.067883</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09281354700885688</v>
+        <v>0.08400555176228794</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03839856211174946</v>
+        <v>0.04725152580822392</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3253912475.237787</v>
+        <v>2954068333.76351</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2016326862199892</v>
+        <v>0.2101677044344447</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0301180888290784</v>
+        <v>0.03064243528823616</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>289</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1917001874.377668</v>
+        <v>1899997568.117776</v>
       </c>
       <c r="F9" t="n">
-        <v>0.152422617777204</v>
+        <v>0.1566840325905815</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03023396012897588</v>
+        <v>0.03638614842922414</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4271002955.743158</v>
+        <v>3656566893.211921</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2006123844786726</v>
+        <v>0.162886602154914</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03570441105152194</v>
+        <v>0.03708554824313186</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>260</v>
+      </c>
+      <c r="J10" t="n">
+        <v>290</v>
+      </c>
+      <c r="K10" t="n">
+        <v>70.66724436134481</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3247636427.820621</v>
+        <v>2826356507.74473</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1347386818838434</v>
+        <v>0.1814022047493385</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04377013013775662</v>
+        <v>0.03075592650564772</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>118</v>
+      </c>
+      <c r="J11" t="n">
+        <v>289</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2439311278.028713</v>
+        <v>2553342401.463045</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1947627617133718</v>
+        <v>0.1552695722125097</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04289480505101666</v>
+        <v>0.04141053422594039</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4611937556.307643</v>
+        <v>5277939114.54169</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0793566438528273</v>
+        <v>0.07047761156939866</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02969811060008358</v>
+        <v>0.03130523216423874</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>148</v>
+      </c>
+      <c r="J13" t="n">
+        <v>291</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3883966312.19869</v>
+        <v>2393706642.343938</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1337618316578671</v>
+        <v>0.1272279044604915</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03116217478833937</v>
+        <v>0.03638906898472764</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>60</v>
+      </c>
+      <c r="J14" t="n">
+        <v>290</v>
+      </c>
+      <c r="K14" t="n">
+        <v>34.27603631924192</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1297118324.315616</v>
+        <v>1831554208.545638</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08731454170113895</v>
+        <v>0.09989209249598514</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04655997390008536</v>
+        <v>0.04201155718105846</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2568344849.877237</v>
+        <v>1923260138.329979</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07988937606850895</v>
+        <v>0.1158453668014643</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03953432107506073</v>
+        <v>0.04850900698669359</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4456061807.9204</v>
+        <v>4232982562.766682</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1340812096012653</v>
+        <v>0.1557003314664114</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0342775877398574</v>
+        <v>0.04692674472275957</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>138</v>
+      </c>
+      <c r="J17" t="n">
+        <v>291</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3957750728.033637</v>
+        <v>3576376272.846062</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1441502689699005</v>
+        <v>0.1752540097277904</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02769497118942353</v>
+        <v>0.03061292607415706</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>74</v>
+      </c>
+      <c r="J18" t="n">
+        <v>291</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1218803434.527102</v>
+        <v>1356484187.694355</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1169929316602721</v>
+        <v>0.1802708308662619</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01917141233392453</v>
+        <v>0.02334593847200689</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2564176607.815757</v>
+        <v>2466277506.26358</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1567266736951531</v>
+        <v>0.1206886285140693</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02776615650122758</v>
+        <v>0.02505758187867995</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2078794078.641399</v>
+        <v>2547204182.548831</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08852910209129715</v>
+        <v>0.07252743372304782</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03963978483744303</v>
+        <v>0.03942164342704445</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2965240837.24847</v>
+        <v>3482640230.792736</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1391711170587089</v>
+        <v>0.09094363192898046</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05297042582081211</v>
+        <v>0.05089897975313413</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>78</v>
+      </c>
+      <c r="J22" t="n">
+        <v>291</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1555629443.721957</v>
+        <v>1317536694.427489</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1657366828865173</v>
+        <v>0.1304830234960177</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04661643985412758</v>
+        <v>0.04293922739310047</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1277,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2496396643.533535</v>
+        <v>2995170548.14037</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1111999382034043</v>
+        <v>0.1489606643249093</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03303632358948053</v>
+        <v>0.03671210991083169</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>86</v>
+      </c>
+      <c r="J24" t="n">
+        <v>290</v>
+      </c>
+      <c r="K24" t="n">
+        <v>45.03805457076155</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1417599496.598304</v>
+        <v>1395105565.483946</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1120983712887421</v>
+        <v>0.1149039687848472</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02547440663135369</v>
+        <v>0.02523573332715308</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1432427222.423612</v>
+        <v>1107903605.564202</v>
       </c>
       <c r="F26" t="n">
-        <v>0.121551526561973</v>
+        <v>0.120133966012716</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02390915723454408</v>
+        <v>0.02759627899629251</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2885669315.062634</v>
+        <v>4129830178.156749</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09685766484937232</v>
+        <v>0.1308426592929042</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01780313078692171</v>
+        <v>0.01764774536277709</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>119</v>
+      </c>
+      <c r="J27" t="n">
+        <v>291</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3209308221.448581</v>
+        <v>3536869552.978402</v>
       </c>
       <c r="F28" t="n">
-        <v>0.135618815182366</v>
+        <v>0.123950991706997</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04111841812031768</v>
+        <v>0.04448907010070079</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>61</v>
+      </c>
+      <c r="J28" t="n">
+        <v>290</v>
+      </c>
+      <c r="K28" t="n">
+        <v>71.66612613091205</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3821591380.837131</v>
+        <v>4134896509.735207</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1246905968777823</v>
+        <v>0.1348266521638666</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04117345638603223</v>
+        <v>0.04220063171684868</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>276</v>
+      </c>
+      <c r="J29" t="n">
+        <v>291</v>
+      </c>
+      <c r="K29" t="n">
+        <v>88.15705330080638</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2313621319.961335</v>
+        <v>1916080824.1379</v>
       </c>
       <c r="F30" t="n">
-        <v>0.101689820123697</v>
+        <v>0.1094456717533547</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02565322740419537</v>
+        <v>0.03017597008822086</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1411973130.03731</v>
+        <v>1481754846.275332</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1005686078434033</v>
+        <v>0.08104578923752774</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05076158487151954</v>
+        <v>0.04168399358896848</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1157746030.161811</v>
+        <v>1391712699.647598</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07398095180746604</v>
+        <v>0.0991000046775414</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02398864030675375</v>
+        <v>0.03075221281793009</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2910402891.426988</v>
+        <v>2130518829.650326</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2063123652681459</v>
+        <v>0.1885573482914941</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03744217660470367</v>
+        <v>0.05279952328412108</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1411099766.421022</v>
+        <v>1433120443.736109</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1157240808696368</v>
+        <v>0.07628989319925215</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02319155324847389</v>
+        <v>0.02269216031049006</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>899844809.9961215</v>
+        <v>1157413582.350454</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07899015842796733</v>
+        <v>0.07365140341268325</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03944542067852382</v>
+        <v>0.04253570907081063</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2413515848.062316</v>
+        <v>2853534266.557158</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1160503332528494</v>
+        <v>0.171814085579123</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02232738019477972</v>
+        <v>0.02623978136583351</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2609463920.152917</v>
+        <v>2577005875.996041</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0740021424796366</v>
+        <v>0.08273526185749105</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03152911730704434</v>
+        <v>0.0264030095693458</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1960647328.967998</v>
+        <v>1412874336.673085</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09464079335825534</v>
+        <v>0.1129155046856764</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0388187790909116</v>
+        <v>0.02654983082510079</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1970463288.407745</v>
+        <v>1891862488.593734</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1221234466477816</v>
+        <v>0.125690972450476</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03220841158914174</v>
+        <v>0.02007639276508668</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1180987401.688475</v>
+        <v>1823356545.819387</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1545774964903003</v>
+        <v>0.1392800181059408</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05579224022924851</v>
+        <v>0.04275472396813235</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1926745762.95509</v>
+        <v>2396484766.905877</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1537171371830303</v>
+        <v>0.1555816668682728</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04028876052182146</v>
+        <v>0.04397901776058786</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2846174245.970159</v>
+        <v>4248953075.988785</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07958159673198931</v>
+        <v>0.09577972394685855</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03636722980584688</v>
+        <v>0.02977550157050537</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>120</v>
+      </c>
+      <c r="J42" t="n">
+        <v>291</v>
+      </c>
+      <c r="K42" t="n">
+        <v>100.95016233913</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1944506373.551737</v>
+        <v>2820187701.96261</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1470406606819786</v>
+        <v>0.1510743518569236</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02328987951197424</v>
+        <v>0.02473649501448147</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1671410669.771789</v>
+        <v>1997018869.7711</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1031758820524453</v>
+        <v>0.09669258373232131</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03125695214087146</v>
+        <v>0.02881628185263025</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1679297290.913925</v>
+        <v>1734303087.643312</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1355905301398148</v>
+        <v>0.1481390914424925</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04592095346263483</v>
+        <v>0.04118586868854766</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5330418126.833611</v>
+        <v>4084520049.917774</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1740600032185762</v>
+        <v>0.164790242095013</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04103490887590633</v>
+        <v>0.0404736702337108</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>172</v>
+      </c>
+      <c r="J46" t="n">
+        <v>290</v>
+      </c>
+      <c r="K46" t="n">
+        <v>87.00614191336577</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3155226659.867187</v>
+        <v>3326459428.436706</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1775674564161018</v>
+        <v>0.1710292819379416</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05787022560858643</v>
+        <v>0.05811266273832705</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>130</v>
+      </c>
+      <c r="J47" t="n">
+        <v>289</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4630974089.0774</v>
+        <v>4674536866.467031</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08967963062787374</v>
+        <v>0.07290998069627393</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02467516920960613</v>
+        <v>0.03457718729037883</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>145</v>
+      </c>
+      <c r="J48" t="n">
+        <v>291</v>
+      </c>
+      <c r="K48" t="n">
+        <v>91.62874443747447</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1365551603.91536</v>
+        <v>1408209746.717271</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1797672432547605</v>
+        <v>0.1622475542143938</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03159459349137032</v>
+        <v>0.03662542307131673</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2199,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3971841857.934308</v>
+        <v>3577477678.067753</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1459731346111984</v>
+        <v>0.1543720316192851</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03933484658060792</v>
+        <v>0.05311160563853666</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>93</v>
+      </c>
+      <c r="J50" t="n">
+        <v>290</v>
+      </c>
+      <c r="K50" t="n">
+        <v>72.33659788191582</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1060366376.810543</v>
+        <v>983276471.7380513</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1390650211750191</v>
+        <v>0.1898927558320483</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04827535897845113</v>
+        <v>0.05425011338077246</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4260540108.117301</v>
+        <v>3948986391.485868</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1233942723439709</v>
+        <v>0.1369885676565334</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0575067569890415</v>
+        <v>0.05897447872998055</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>181</v>
+      </c>
+      <c r="J52" t="n">
+        <v>290</v>
+      </c>
+      <c r="K52" t="n">
+        <v>78.51933444586106</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2308,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2412512033.158422</v>
+        <v>2633818986.911344</v>
       </c>
       <c r="F53" t="n">
-        <v>0.158013702399488</v>
+        <v>0.190807889442931</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03071448222437915</v>
+        <v>0.02561922219459387</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>282</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3916697166.419811</v>
+        <v>4742345270.220564</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1154036969727411</v>
+        <v>0.1066965128340432</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0384543072443467</v>
+        <v>0.04500488887774969</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>153</v>
+      </c>
+      <c r="J54" t="n">
+        <v>291</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4670746215.710736</v>
+        <v>4345342991.261096</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1755357735466826</v>
+        <v>0.2239823237605643</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01995993484256921</v>
+        <v>0.03156405565285513</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>133</v>
+      </c>
+      <c r="J55" t="n">
+        <v>290</v>
+      </c>
+      <c r="K55" t="n">
+        <v>85.35801416403844</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1310274306.135887</v>
+        <v>1650950501.643325</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1031402035983</v>
+        <v>0.1588179206963143</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05707120727624366</v>
+        <v>0.0495053341873032</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4273257703.645352</v>
+        <v>3273665877.346246</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1511946232289352</v>
+        <v>0.1388324787679505</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02261990944896459</v>
+        <v>0.02405653354684455</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>118</v>
+      </c>
+      <c r="J57" t="n">
+        <v>289</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1234823450.630226</v>
+        <v>1464283827.297885</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1875798376298908</v>
+        <v>0.1676395479462997</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02779686285691558</v>
+        <v>0.0271118746932182</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3812409303.81207</v>
+        <v>3583183422.075319</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09182873769921264</v>
+        <v>0.1021784676545422</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03669792909975374</v>
+        <v>0.04849894827887702</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>140</v>
+      </c>
+      <c r="J59" t="n">
+        <v>291</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2357734944.446589</v>
+        <v>2594525683.22614</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1815904078613684</v>
+        <v>0.137354013550559</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0233980306520752</v>
+        <v>0.02052879301087535</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2051014121.701841</v>
+        <v>2280575263.042304</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1717078458233317</v>
+        <v>0.1226809030682045</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0290056511511121</v>
+        <v>0.03044066817944848</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1870964912.156829</v>
+        <v>2052299828.281411</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1687707735722207</v>
+        <v>0.1398771921289024</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03912023569874268</v>
+        <v>0.03339235424039114</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4627568723.11041</v>
+        <v>3815204570.557521</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08514479085910551</v>
+        <v>0.07928884583209363</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03417866933081114</v>
+        <v>0.04030793235612202</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>141</v>
+      </c>
+      <c r="J63" t="n">
+        <v>291</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3448168499.641872</v>
+        <v>4231794364.059442</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1497696138076643</v>
+        <v>0.1641763710838584</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03076897261613997</v>
+        <v>0.02563477742730917</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>143</v>
+      </c>
+      <c r="J64" t="n">
+        <v>290</v>
+      </c>
+      <c r="K64" t="n">
+        <v>85.91343300737829</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4038239680.922834</v>
+        <v>4837263668.578073</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1078199075644136</v>
+        <v>0.1392590105122154</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0293659824985433</v>
+        <v>0.02802401565862192</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>232</v>
+      </c>
+      <c r="J65" t="n">
+        <v>291</v>
+      </c>
+      <c r="K65" t="n">
+        <v>87.51232677062262</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4070783374.311287</v>
+        <v>5656178130.81944</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1108246930346912</v>
+        <v>0.1244816816988507</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03689588083847243</v>
+        <v>0.04230237443081031</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>143</v>
+      </c>
+      <c r="J66" t="n">
+        <v>291</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3042003119.602231</v>
+        <v>3355983905.229748</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06774948858408895</v>
+        <v>0.07563797875435951</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05083216247178279</v>
+        <v>0.0330445337169919</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4153214658.835566</v>
+        <v>4516510113.012269</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1389279458388166</v>
+        <v>0.1189703054900993</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04513350793168992</v>
+        <v>0.0437015622881074</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>153</v>
+      </c>
+      <c r="J68" t="n">
+        <v>291</v>
+      </c>
+      <c r="K68" t="n">
+        <v>87.09647528618233</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1841881117.824065</v>
+        <v>1900737584.723605</v>
       </c>
       <c r="F69" t="n">
-        <v>0.160038859967458</v>
+        <v>0.132062863277833</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04344500910119187</v>
+        <v>0.05162985186895296</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3399328017.923747</v>
+        <v>3499033172.644028</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09420286559838006</v>
+        <v>0.08432898685184596</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04736870606352647</v>
+        <v>0.03789040034195706</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>42</v>
+      </c>
+      <c r="J70" t="n">
+        <v>291</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5157252810.745013</v>
+        <v>4850475346.572555</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1548352560514015</v>
+        <v>0.1409936569987368</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02666853298975199</v>
+        <v>0.03268796954206111</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>217</v>
+      </c>
+      <c r="J71" t="n">
+        <v>291</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2122020283.082208</v>
+        <v>1570255273.549375</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07629958698346741</v>
+        <v>0.07530822456795061</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04684848580533223</v>
+        <v>0.05268112925406</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3349097374.870037</v>
+        <v>2539209563.40806</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07168683946729332</v>
+        <v>0.07310701246197884</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03582137775315423</v>
+        <v>0.0361749324695102</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3051,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2513575940.125477</v>
+        <v>3132193778.309221</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1543747810747328</v>
+        <v>0.1137933579033776</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03495665823150274</v>
+        <v>0.03032083448098582</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>78</v>
+      </c>
+      <c r="J74" t="n">
+        <v>290</v>
+      </c>
+      <c r="K74" t="n">
+        <v>58.74216003726941</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2165968494.935699</v>
+        <v>1581549666.643071</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1594619491650694</v>
+        <v>0.1104333913080695</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0357290023206086</v>
+        <v>0.0371916315647032</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4236312400.904927</v>
+        <v>4032719605.565224</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1158857587222105</v>
+        <v>0.1231969306909295</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03254398135995539</v>
+        <v>0.03039207568691597</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>136</v>
+      </c>
+      <c r="J76" t="n">
+        <v>291</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1698069652.85237</v>
+        <v>2080005823.292256</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1840139684194099</v>
+        <v>0.1429632189614928</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02012337141492826</v>
+        <v>0.02073070554129781</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4613151714.412576</v>
+        <v>3448943057.427836</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09134519153816956</v>
+        <v>0.1297293303757129</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04162481772168227</v>
+        <v>0.03682596027499644</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>145</v>
+      </c>
+      <c r="J78" t="n">
+        <v>289</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1227579114.277133</v>
+        <v>1293263631.73316</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1098222095988295</v>
+        <v>0.152654121932323</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03980850496590851</v>
+        <v>0.03786738465604107</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4859318266.804333</v>
+        <v>5193982412.874912</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1042612306152664</v>
+        <v>0.0932187884903151</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02559065593238409</v>
+        <v>0.03235363653352565</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>142</v>
+      </c>
+      <c r="J80" t="n">
+        <v>291</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3458321453.729982</v>
+        <v>3667392205.659894</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09750145223235633</v>
+        <v>0.1293868100473793</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02228471094341888</v>
+        <v>0.02152051373792287</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>133</v>
+      </c>
+      <c r="J81" t="n">
+        <v>291</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5262351116.499148</v>
+        <v>5054099665.267352</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1687753065046965</v>
+        <v>0.2008959382305844</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02748282314424504</v>
+        <v>0.02060310955187732</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>214</v>
+      </c>
+      <c r="J82" t="n">
+        <v>290</v>
+      </c>
+      <c r="K82" t="n">
+        <v>85.68344353809616</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2158063658.006913</v>
+        <v>1950722296.893965</v>
       </c>
       <c r="F83" t="n">
-        <v>0.113233394354108</v>
+        <v>0.1317073992589644</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03105925444368645</v>
+        <v>0.04067205395435926</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2530104394.659206</v>
+        <v>2554751428.820351</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08073460383897361</v>
+        <v>0.09736607554434881</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03267081677136193</v>
+        <v>0.03246027117699065</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3352312286.408431</v>
+        <v>2929396864.027636</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1628357202556856</v>
+        <v>0.1259926318125406</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04373665653120479</v>
+        <v>0.05294590917392709</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1714254971.767627</v>
+        <v>2365593032.218574</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1589894825181935</v>
+        <v>0.1227135499140604</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02546952315804518</v>
+        <v>0.02706392378987665</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1070436502.228178</v>
+        <v>960153322.7650734</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1509559710011046</v>
+        <v>0.1399404397245653</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02780749793568853</v>
+        <v>0.03911066914049385</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2417522185.294708</v>
+        <v>3156746627.022043</v>
       </c>
       <c r="F88" t="n">
-        <v>0.153427325631552</v>
+        <v>0.1374715175564796</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03105107729397212</v>
+        <v>0.02860289368542032</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3271751920.828865</v>
+        <v>3277584156.332435</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1170347061180687</v>
+        <v>0.1154044662340562</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02764661290538029</v>
+        <v>0.03693702914991215</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1916402064.736363</v>
+        <v>2082455480.459503</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1066728864059104</v>
+        <v>0.1283742133114512</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05081571972572679</v>
+        <v>0.04896434709421407</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1586650599.841726</v>
+        <v>1879626969.295719</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1808448192857398</v>
+        <v>0.1367914805688624</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04569916938284901</v>
+        <v>0.05228176331965331</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1806065162.200373</v>
+        <v>2695387645.787771</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08344873175812705</v>
+        <v>0.07853247921944838</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03487280133545483</v>
+        <v>0.03150949448118889</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4790591778.968405</v>
+        <v>4114345892.712329</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09683081857806461</v>
+        <v>0.1041122127975277</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04846505855732298</v>
+        <v>0.04212847957028437</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>128</v>
+      </c>
+      <c r="J93" t="n">
+        <v>290</v>
+      </c>
+      <c r="K93" t="n">
+        <v>86.30542969547074</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2079913493.635588</v>
+        <v>2451829105.175063</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1520935351943224</v>
+        <v>0.1606438345956163</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04257335850454534</v>
+        <v>0.0425792251165577</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2636890350.033449</v>
+        <v>2352141920.613762</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08862592999630398</v>
+        <v>0.09682824472290201</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04902414804323858</v>
+        <v>0.04244299493929017</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1913084644.928554</v>
+        <v>1806150037.438296</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08969369004014022</v>
+        <v>0.1092081307712656</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02887370477581215</v>
+        <v>0.03890338465762062</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5354111600.857866</v>
+        <v>3551705242.152528</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1085506643974984</v>
+        <v>0.1462457794225209</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02606838359712411</v>
+        <v>0.02360251264946489</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>144</v>
+      </c>
+      <c r="J97" t="n">
+        <v>290</v>
+      </c>
+      <c r="K97" t="n">
+        <v>67.89098026808664</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2892856135.437706</v>
+        <v>3637951963.155838</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1092128849205865</v>
+        <v>0.09134016349327043</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0325830438200946</v>
+        <v>0.03116115037639518</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>70</v>
+      </c>
+      <c r="J98" t="n">
+        <v>291</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2385575994.182784</v>
+        <v>2413584031.078809</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1173413925649013</v>
+        <v>0.1068208380216882</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02606887440396717</v>
+        <v>0.02588136312705568</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4761611524.655294</v>
+        <v>4113513128.929564</v>
       </c>
       <c r="F100" t="n">
-        <v>0.132808401829592</v>
+        <v>0.1648331738857892</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02459047226704214</v>
+        <v>0.02248203541091429</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>125</v>
+      </c>
+      <c r="J100" t="n">
+        <v>290</v>
+      </c>
+      <c r="K100" t="n">
+        <v>86.42120514900977</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3130447191.570935</v>
+        <v>2755658635.67301</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2103800216268155</v>
+        <v>0.1632901625521416</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04529820464354833</v>
+        <v>0.05768918514257982</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
